--- a/Testing/20170906/test/HK EMAIL_13_June copy.xlsx
+++ b/Testing/20170906/test/HK EMAIL_13_June copy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pazu/Desktop/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pazu/Documents/004251-NBK_112016/Testing/20170906/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="508">
   <si>
     <t>Mail</t>
   </si>
@@ -1553,6 +1553,9 @@
   </si>
   <si>
     <t>ddd</t>
+  </si>
+  <si>
+    <t>DDD</t>
   </si>
 </sst>
 </file>
@@ -1902,7 +1905,7 @@
   <dimension ref="A1:C430"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2522,7 +2525,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>460</v>
+        <v>507</v>
       </c>
       <c r="C56" t="s">
         <v>505</v>
